--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390566</v>
+        <v>889432.3191390567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243404.6867019651</v>
+        <v>259729.1478064081</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132055</v>
+        <v>7937223.370132057</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>105.6152911330824</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>124.4376380720372</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>196.3719277013551</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>83.70888068730588</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.994189322693701</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>125.638434068502</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.14804664098608</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>197.4083929851558</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.9926801761842</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1464,7 +1464,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310.191887013951</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>11.2876601105465</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>255.8940731710743</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>334.5817096732204</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1929,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>113.2870337730222</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>197.4083929851558</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>357.4847324689627</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>101.717706569126</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>43.7086658878375</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U24" t="n">
         <v>225.8879277888686</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>218.3734398702014</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>88.42622435099887</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>151.2756923576013</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>270.6226856612329</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>122.5915982230237</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.3178534391397</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,16 +3029,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>112.6867091553447</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3083,10 +3083,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>170.8454495418752</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.97699675700441</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>16.889865504349</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>237.6596569995503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3281,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>225.4603876057576</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80276983270106</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>37.83808333974849</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>121.6824928060954</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>134.9198292231115</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>129.024624796403</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,22 +3743,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>241.9672255833418</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>229.3953293296476</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>164.1944522398485</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>253.5111876485549</v>
+        <v>277.6533917267864</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4135,22 +4135,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.36452066793927</v>
       </c>
       <c r="F46" t="n">
-        <v>57.44045292477201</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="C8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="E8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="F8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="G8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415462</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S8" t="n">
-        <v>907.4554057415462</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T8" t="n">
-        <v>907.4554057415462</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="U8" t="n">
-        <v>907.4554057415462</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="V8" t="n">
-        <v>822.9009808048736</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="W8" t="n">
-        <v>556.9999364092505</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="X8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="Y8" t="n">
-        <v>291.0988920136273</v>
+        <v>234.1970013446415</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>337.3061660926317</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>337.3061660926317</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>188.3717564313804</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>29.13430142592495</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>29.13430142592495</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>29.13430142592495</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992136</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="L9" t="n">
-        <v>394.9337607940762</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M9" t="n">
-        <v>542.8187885312773</v>
+        <v>524.903632156528</v>
       </c>
       <c r="N9" t="n">
-        <v>542.8187885312773</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O9" t="n">
-        <v>791.5722026152395</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P9" t="n">
-        <v>983.5735772933382</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465645</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148217</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>545.0664648575856</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>337.3061660926317</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.98668255551324</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224077</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2673.924161547329</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.607341885688</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5100,16 +5100,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5242,7 +5242,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>799.1015098861748</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>799.1015098861748</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>799.1015098861748</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>799.1015098861748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5282,7 +5282,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2685.747414138883</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2685.747414138883</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545185</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="X14" t="n">
-        <v>1112.426648284105</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1112.426648284105</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5464,22 +5464,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2366.086203674652</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>802.8902095122148</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>391.9043047226073</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X17" t="n">
-        <v>2366.086203674652</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2366.086203674652</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5637,7 +5637,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3743290658414</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5680,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X19" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2307.009759042411</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C20" t="n">
-        <v>2107.607341885688</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>826.0245759725606</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>415.038671182953</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5789,13 +5789,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5853,19 +5853,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5938,22 +5938,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1321.530002831497</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>952.5674858910851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>952.5674858910851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>952.5674858910851</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2652.99892345475</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2652.99892345475</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2434.364256426813</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2434.364256426813</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2434.364256426813</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2081.595601156699</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1708.129842895619</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1708.129842895619</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6096,13 +6096,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2476.569858826099</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C26" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D26" t="n">
         <v>1749.341643278937</v>
@@ -6221,55 +6221,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2476.569858826099</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2476.569858826099</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X26" t="n">
-        <v>2476.569858826099</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.569858826099</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6309,43 +6309,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1309.714918859355</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C29" t="n">
-        <v>1309.714918859355</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>1036.358670716696</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.483574129469</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859355</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X29" t="n">
-        <v>1309.714918859355</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1309.714918859355</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2066.718496146435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1365.680170394969</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C32" t="n">
-        <v>996.7176534545576</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D32" t="n">
-        <v>996.7176534545576</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
@@ -6701,10 +6701,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6731,19 +6731,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2305.943262836876</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990285</v>
+        <v>1974.880375493305</v>
       </c>
       <c r="W32" t="n">
-        <v>2125.745768720171</v>
+        <v>1622.111720223191</v>
       </c>
       <c r="X32" t="n">
-        <v>1752.280010459091</v>
+        <v>1248.645961962111</v>
       </c>
       <c r="Y32" t="n">
-        <v>1752.280010459091</v>
+        <v>858.5066299862995</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2378.09626867798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2072.434802528117</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1110.630459970126</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>699.6445551805186</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>281.6807470787055</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,10 +6935,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224073</v>
@@ -6977,10 +6977,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7005,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7014,16 +7014,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7038,7 +7038,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073963</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C37" t="n">
-        <v>656.6110348804735</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D37" t="n">
-        <v>506.4943954681378</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E37" t="n">
-        <v>358.5813018857447</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F37" t="n">
-        <v>211.6913543878343</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G37" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1349.569168355879</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C38" t="n">
-        <v>980.6066514154677</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D38" t="n">
-        <v>980.6066514154677</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E38" t="n">
-        <v>594.8183988172234</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>594.8183988172234</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>176.8545907154103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7178,7 +7178,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2465.942913862885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2465.942913862885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>1739.708500331691</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y38" t="n">
-        <v>1349.569168355879</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
         <v>665.1105362747051</v>
@@ -7248,46 +7248,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>337.1618402196266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>337.1618402196266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>337.1618402196266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1882.054803223514</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C41" t="n">
-        <v>1513.092286283102</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.680947310029</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548715</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548715</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287635</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y41" t="n">
-        <v>2268.654643287635</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7515,22 +7515,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2349.647644127529</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>2531.296108957769</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y43" t="n">
-        <v>2531.296108957769</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1995.909162857191</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.94664591678</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2386.048494833003</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="X44" t="n">
-        <v>2386.048494833003</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="Y44" t="n">
-        <v>1995.909162857191</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="45">
@@ -7722,34 +7722,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073964</v>
@@ -7783,28 +7783,28 @@
         <v>438.7118141694736</v>
       </c>
       <c r="C46" t="n">
-        <v>438.7118141694736</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D46" t="n">
-        <v>438.7118141694736</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E46" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>291.5128498181811</v>
+        <v>391.5613604636105</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291452</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,22 +22623,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>39.45392126030147</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22680,19 +22680,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22762,7 +22762,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>192.3884445891957</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,7 +22841,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22869,22 +22869,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>33.20744238336374</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,25 +22908,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23036,10 +23036,10 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>75.28528753921148</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23069,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>26.31893258554445</v>
       </c>
       <c r="U8" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>244.043377782829</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574613</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268022</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23103,10 +23103,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23115,10 +23115,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>103.7631844545923</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017153</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23197,13 +23197,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>98.27937439571028</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
         <v>223.2933741908973</v>
@@ -23242,7 +23242,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206221</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>185.3254486783248</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.4857223986275</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595356</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.54195464952954</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.1606602471113</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23704,16 +23704,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>109.3788185999332</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>79.20246034757463</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23789,16 +23789,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>33.146928873547</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23944,16 +23944,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>167.8644987858518</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>56.29943755183228</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,19 +24136,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>43.70334145380527</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,13 +24178,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.76973668697423</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24415,19 +24415,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24488,22 +24488,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>109.3788185999335</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>260.8147443664142</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>16.03410990144963</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,13 +24652,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>84.06035595945002</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>247.1395024554453</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,22 +24889,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,16 +24917,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>269.2436609169171</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,10 +24971,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>80.37871796641409</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,13 +25090,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>85.98862503533384</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>129.7753264758089</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25132,7 +25132,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>98.46238515859952</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>96.44405126592677</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,19 +25321,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>107.5829646831828</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>202.2402799582618</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25442,13 +25442,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>32.32699187551628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25567,10 +25567,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25600,10 +25600,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>96.0104806616813</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>112.7158160373411</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>94.5274434347096</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25685,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,13 +25801,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25840,7 +25840,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>61.51520314918861</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>95.72978106885816</v>
+        <v>71.58757699062659</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26023,28 +26023,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>100.0694419786299</v>
       </c>
       <c r="F46" t="n">
-        <v>87.98059509815923</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.3990502442</v>
+        <v>459351.399050244</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417575</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26317,43 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
+        <v>245779.718513394</v>
+      </c>
+      <c r="G2" t="n">
         <v>245779.7185133939</v>
       </c>
-      <c r="G2" t="n">
-        <v>245779.7185133938</v>
-      </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266329</v>
+        <v>26613.587572663</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525744</v>
+        <v>5625.642228525615</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714449</v>
+        <v>196.6176664714447</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597035</v>
@@ -26448,13 +26448,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26473,7 +26473,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26482,7 +26482,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26491,10 +26491,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861916</v>
+        <v>12006.33885861911</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.7703901669</v>
+        <v>92775.77039016689</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535128002</v>
+        <v>70394.51535128019</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326495</v>
+        <v>-211685.3057326498</v>
       </c>
       <c r="F6" t="n">
+        <v>196035.1319509248</v>
+      </c>
+      <c r="G6" t="n">
         <v>196035.1319509247</v>
       </c>
-      <c r="G6" t="n">
-        <v>196035.1319509246</v>
-      </c>
       <c r="H6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="J6" t="n">
         <v>132975.1893518184</v>
@@ -26549,10 +26549,10 @@
         <v>196035.1319509247</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.4897223989</v>
+        <v>190409.489722399</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028971</v>
+        <v>93601.01426028962</v>
       </c>
       <c r="N6" t="n">
         <v>196035.1319509247</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26793,7 +26793,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,7 +26802,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26811,10 +26811,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302971</v>
+        <v>354.7302815302973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400783</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400794</v>
+        <v>22.22774507400743</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32084,7 +32084,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
@@ -32315,7 +32315,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,19 +33488,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33518,19 +33518,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K35" t="n">
         <v>193.1674799081577</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33743,10 +33743,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33980,7 +33980,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>162.451812657641</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N39" t="n">
         <v>211.31907117367</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>11.76595806653216</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>149.3788158961627</v>
+        <v>261.9696201058924</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>251.2660748322851</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,16 +35732,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,7 +35975,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36686,13 +36686,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37160,13 +37160,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
         <v>485.8144648060965</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,13 +37391,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37628,13 +37628,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>486.0228424856226</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38108,10 +38108,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390567</v>
+        <v>929720.4897610372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259729.1478064081</v>
+        <v>285214.5742438059</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132057</v>
+        <v>7919633.117874094</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>105.6152911330824</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -981,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>124.4376380720372</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>118.7764738957966</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T8" t="n">
-        <v>196.3719277013551</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,19 +1223,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.994189322693701</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>62.13484214871479</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197.4083929851558</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>353.5759586385881</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="13">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.14167849255917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.4106407312802</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>11.2876601105465</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>92.00803688215807</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>334.5817096732204</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>116.0924447782241</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>357.4847324689627</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>148.7642517109727</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>190.1143707176231</v>
       </c>
     </row>
     <row r="24">
@@ -2448,7 +2450,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
         <v>225.8879277888686</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>92.00803688215785</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>88.42622435099887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>286.3397424367087</v>
       </c>
     </row>
     <row r="27">
@@ -2682,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.6850513083903</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>141.9938626745187</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>122.5915982230237</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>49.3064241939797</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>81.59119981643197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>170.8454495418752</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.889865504349</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>381.6269365471937</v>
       </c>
       <c r="H35" t="n">
-        <v>225.4603876057576</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.83808333974849</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3585,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3667,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>229.3953293296476</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>22.35153719005481</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>277.6533917267864</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4104,7 +4106,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.36452066793927</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7999090013961</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4410,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4504,22 +4506,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>844.0809192522559</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>641.8943246110218</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>413.6707063474109</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="W6" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X6" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y6" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="7">
@@ -4720,7 +4722,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.1970013446415</v>
+        <v>718.7806050553884</v>
       </c>
       <c r="C8" t="n">
-        <v>234.1970013446415</v>
+        <v>718.7806050553884</v>
       </c>
       <c r="D8" t="n">
-        <v>234.1970013446415</v>
+        <v>475.3318284112884</v>
       </c>
       <c r="E8" t="n">
-        <v>234.1970013446415</v>
+        <v>475.3318284112884</v>
       </c>
       <c r="F8" t="n">
-        <v>234.1970013446415</v>
+        <v>475.3318284112884</v>
       </c>
       <c r="G8" t="n">
-        <v>234.1970013446415</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>234.1970013446415</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668857</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="T8" t="n">
-        <v>500.0980457402644</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="U8" t="n">
-        <v>500.0980457402644</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="V8" t="n">
-        <v>500.0980457402644</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="W8" t="n">
-        <v>500.0980457402644</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="X8" t="n">
-        <v>234.1970013446415</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="Y8" t="n">
-        <v>234.1970013446415</v>
+        <v>962.2293816994884</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>337.3061660926317</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C9" t="n">
-        <v>337.3061660926317</v>
+        <v>789.604126229509</v>
       </c>
       <c r="D9" t="n">
-        <v>188.3717564313804</v>
+        <v>640.6697165682577</v>
       </c>
       <c r="E9" t="n">
-        <v>29.13430142592495</v>
+        <v>481.4322615628022</v>
       </c>
       <c r="F9" t="n">
-        <v>29.13430142592495</v>
+        <v>334.8977035896872</v>
       </c>
       <c r="G9" t="n">
-        <v>29.13430142592495</v>
+        <v>196.1668781723027</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>82.79774257988207</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>265.5537082516946</v>
+        <v>65.60123993063792</v>
       </c>
       <c r="M9" t="n">
-        <v>524.903632156528</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="N9" t="n">
-        <v>524.903632156528</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490201</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480426</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>954.9030226480426</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>752.9179650631185</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>752.9179650631185</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V9" t="n">
-        <v>752.9179650631185</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W9" t="n">
-        <v>752.9179650631185</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X9" t="n">
-        <v>545.0664648575856</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y9" t="n">
-        <v>337.3061660926317</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2107.607341885688</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F11" t="n">
         <v>952.5674858910851</v>
@@ -5036,16 +5038,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>680.5111271432434</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1577.945354755378</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C14" t="n">
-        <v>1208.982837814967</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D14" t="n">
-        <v>850.7171392082162</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2685.747414138883</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2685.747414138883</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W14" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X14" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y14" t="n">
-        <v>1964.5451948195</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5364,34 +5366,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.94416071721</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="C17" t="n">
-        <v>1546.94416071721</v>
+        <v>1744.21174165236</v>
       </c>
       <c r="D17" t="n">
-        <v>1188.678462110459</v>
+        <v>1385.946043045609</v>
       </c>
       <c r="E17" t="n">
-        <v>802.8902095122148</v>
+        <v>1000.157790447365</v>
       </c>
       <c r="F17" t="n">
-        <v>391.9043047226073</v>
+        <v>589.1718856577575</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>171.2080775559443</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5637,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064343</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>598.044640063212</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.775345511217</v>
+        <v>962.1597273639309</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.812828570805</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D20" t="n">
-        <v>1211.812828570805</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E20" t="n">
-        <v>826.0245759725606</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F20" t="n">
-        <v>415.038671182953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.853480628541</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2273.218813600604</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2019.457028238695</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1688.394140895125</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>1335.625485625011</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>962.1597273639309</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>962.1597273639309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5935,16 +5937,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T22" t="n">
-        <v>597.8010803716834</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U22" t="n">
-        <v>308.6274700262513</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
         <v>53.94298182036445</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>920.3919303875161</v>
       </c>
     </row>
     <row r="24">
@@ -6066,34 +6068,34 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
         <v>2289.884200196743</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2604.211680026144</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2604.211680026144</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2454.095040613808</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2306.181947031415</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1749.341643278937</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C26" t="n">
-        <v>1749.341643278937</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D26" t="n">
-        <v>1749.341643278937</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6254,7 +6256,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
         <v>2169.72394915887</v>
@@ -6263,13 +6265,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>1749.341643278937</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>1749.341643278937</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y26" t="n">
-        <v>1749.341643278937</v>
+        <v>823.1945852167225</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6309,19 +6311,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>350.0227938960811</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>202.109700313688</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>202.109700313688</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>202.109700313688</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755379</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E29" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990286</v>
+        <v>2553.720946902547</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990286</v>
+        <v>2299.959161540638</v>
       </c>
       <c r="V29" t="n">
-        <v>2478.514423990286</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="W29" t="n">
-        <v>2478.514423990286</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="X29" t="n">
-        <v>2354.684526795312</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="T31" t="n">
-        <v>597.8010803716834</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="U31" t="n">
-        <v>308.6274700262513</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>678.3245153236264</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>471.9067899221776</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C32" t="n">
-        <v>471.9067899221776</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="D32" t="n">
-        <v>471.9067899221776</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>136.3583351702957</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>136.3583351702957</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2305.943262836876</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1974.880375493305</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.111720223191</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X32" t="n">
-        <v>1248.645961962111</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y32" t="n">
-        <v>858.5066299862995</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
@@ -6816,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6880,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>711.0685140000211</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>456.3840257941342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.381229508782</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.41871256837</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D35" t="n">
-        <v>1496.41871256837</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.630459970126</v>
+        <v>439.4247359084389</v>
       </c>
       <c r="F35" t="n">
-        <v>699.6445551805186</v>
+        <v>439.4247359084389</v>
       </c>
       <c r="G35" t="n">
-        <v>281.6807470787055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.120401548716</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.981069572904</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7014,43 +7016,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2528.212908090316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>2378.09626867798</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>2230.183175095587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7120,25 +7122,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159.5099885583422</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036445</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D38" t="n">
         <v>53.94298182036445</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.109828622464</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
         <v>665.1105362747051</v>
@@ -7251,13 +7253,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7272,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>2362.69689653384</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J40" t="n">
         <v>2022.963088632153</v>
@@ -7360,22 +7362,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2566.821187183472</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2277.64757683804</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>808.0839286340174</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>439.1214116936057</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>439.1214116936057</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>439.1214116936057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>439.1214116936057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>439.1214116936057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1194.683768698139</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7515,16 +7517,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7573,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="W43" t="n">
-        <v>438.9553738610022</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="X43" t="n">
-        <v>438.9553738610022</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.1627947174721</v>
+        <v>76.52029211334911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.923258067584</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.960741127172</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>857.6950425204218</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7685,13 +7687,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2361.662430107517</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.662430107517</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1971.523098131706</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7725,22 +7727,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7749,19 +7751,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>269.7756312415667</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>269.7756312415667</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7837,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661622</v>
       </c>
       <c r="M9" t="n">
-        <v>391.5613604636105</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9255,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22598,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>51.00955661900684</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>39.45392126030147</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22680,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22762,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22790,10 +22792,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979771</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22869,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>33.20744238336374</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>52.90669720804127</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T8" t="n">
-        <v>26.31893258554445</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>103.7631844545923</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>27.26179070270029</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23242,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>65.87458628206221</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185.3254486783248</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>16.1551420398809</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23437,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23470,19 +23472,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.4429748595356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.3232009322004</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.1606602471113</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963708</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>45.199959188537</v>
@@ -23704,16 +23706,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>79.20246034757463</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>207.8303279861331</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23792,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23941,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>56.29943755183228</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>25.6514610979988</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24175,19 +24177,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T22" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>196.1235679384305</v>
       </c>
     </row>
     <row r="24">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>87.82394329977944</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24382,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24415,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3958356744439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>260.8147443664142</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>99.89819621934487</v>
       </c>
     </row>
     <row r="27">
@@ -24604,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>9.485837533404862</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24652,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>74.45445768313914</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>247.1395024554453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24883,19 +24885,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>97.35876778617816</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24935,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>70.34011642842928</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>80.37871796641409</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>129.7753264758089</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>32.15723347360131</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46238515859952</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>107.5829646831828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25360,13 +25362,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>135.3263138290204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25555,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.0104806616813</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25645,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>94.5274434347096</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>27.53450764830092</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,7 +25687,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.25436541380077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>144.9582650689961</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25925,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>71.58757699062659</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>100.0694419786299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26077,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.399050244</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="15">
@@ -26317,13 +26319,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26332,16 +26334,16 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26350,10 +26352,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="P2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245779.718513394</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525615</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714447</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26430,7 +26432,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597035</v>
@@ -26448,7 +26450,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26473,16 +26475,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="G5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26491,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861911</v>
+        <v>12006.33885861919</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016689</v>
+        <v>92775.77039016687</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535128019</v>
+        <v>92775.77039016686</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326498</v>
+        <v>-236811.0420920714</v>
       </c>
       <c r="F6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="G6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="H6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="J6" t="n">
         <v>132975.1893518184</v>
       </c>
       <c r="K6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.489722399</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028962</v>
+        <v>88061.77127686651</v>
       </c>
       <c r="N6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="O6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="P6" t="n">
         <v>196035.1319509248</v>
@@ -26741,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26774,7 +26776,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26793,16 +26795,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26811,10 +26813,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302973</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32084,7 +32086,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32312,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32470,7 +32472,7 @@
         <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32564,7 +32566,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32944,7 +32946,7 @@
         <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K26" t="n">
         <v>193.1674799081577</v>
@@ -33041,10 +33043,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33275,7 +33277,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479577</v>
@@ -33497,10 +33499,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33746,16 +33748,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33974,13 +33976,13 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
         <v>211.31907117367</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34220,28 +34222,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34457,13 +34459,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>46.78797658628807</v>
       </c>
       <c r="M9" t="n">
-        <v>261.9696201058924</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35732,7 +35734,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35741,7 +35743,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,10 +35977,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36677,7 +36679,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36689,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37163,7 +37165,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
